--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H200_B16.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.551829268292683</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5414012738853503</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.2142857142857143</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9392265193370166</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="E2" t="n">
-        <v>0.551829268292683</v>
+        <v>0.5274390243902439</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7111984282907663</v>
+        <v>0.6868686868686869</v>
       </c>
       <c r="G2" t="n">
-        <v>0.475609756097561</v>
+        <v>0.4969512195121951</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1259662201955423</v>
+        <v>0.0865744930643513</v>
       </c>
       <c r="J2" t="n">
-        <v>1649.61950515177</v>
+        <v>1173.819034487786</v>
       </c>
       <c r="K2" t="n">
-        <v>3612608.644854821</v>
+        <v>2011691.070894066</v>
       </c>
       <c r="L2" t="n">
-        <v>1900.686361516497</v>
+        <v>1418.340957208127</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3185144271517868</v>
+        <v>0.620512882347661</v>
       </c>
     </row>
   </sheetData>
